--- a/data/dados.xlsx
+++ b/data/dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\UNAERP\Projetos\UNAERP\sus_flask\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3694ED93-769F-4A70-828E-01EB4005A1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E1A17-DFFC-4C51-97CF-BFCAB0B830A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -236,17 +236,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -367,6 +464,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -389,6 +491,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -411,6 +518,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -433,6 +545,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -455,6 +572,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -477,6 +599,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -502,6 +629,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -527,6 +659,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -552,6 +689,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -577,6 +719,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -602,6 +749,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -627,6 +779,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -654,6 +811,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -681,6 +843,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -708,6 +875,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -735,6 +907,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -762,6 +939,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -789,6 +971,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -814,6 +1001,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -839,6 +1031,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -864,6 +1061,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -889,6 +1091,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -914,6 +1121,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -939,6 +1151,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -966,6 +1183,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -993,6 +1215,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1020,6 +1247,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1047,6 +1279,11 @@
                 </a:glow>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-1A82-4D66-BBB4-FC5423439E45}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -3164,28 +3401,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7325F42B-CD1C-4BA6-BDAD-A34D13FCF1B6}" name="Tabela1" displayName="Tabela1" ref="A1:K32" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7325F42B-CD1C-4BA6-BDAD-A34D13FCF1B6}" name="Tabela1" displayName="Tabela1" ref="A1:K32" totalsRowCount="1" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <autoFilter ref="A1:K31" xr:uid="{7325F42B-CD1C-4BA6-BDAD-A34D13FCF1B6}"/>
   <tableColumns count="11">
-    <tableColumn id="13" xr3:uid="{5A3067FB-7CC5-4B06-A66E-115B4933E7DB}" name="ANO" totalsRowFunction="custom">
+    <tableColumn id="13" xr3:uid="{5A3067FB-7CC5-4B06-A66E-115B4933E7DB}" name="ANO" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="23">
       <totalsRowFormula array="1">SUBTOTAL(E2:E29,k)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{18481966-5595-479D-9A6B-692E556BC117}" name="Total Investido SUS em BI"/>
-    <tableColumn id="12" xr3:uid="{A48C79EB-E134-45F0-8978-1BD165A6C836}" name="Presidente Vigente"/>
-    <tableColumn id="11" xr3:uid="{97C07E3F-19EE-40A4-AF4E-3ECBA9A931D4}" name="Secretário de Saúde Vigente"/>
-    <tableColumn id="2" xr3:uid="{16A0E6BB-C8B1-4C6B-A306-E5752C72C553}" name="Historico"/>
-    <tableColumn id="6" xr3:uid="{E63431CF-E3C7-431A-8F64-A81817FEA459}" name="Diferença">
+    <tableColumn id="1" xr3:uid="{18481966-5595-479D-9A6B-692E556BC117}" name="Total Investido SUS em BI" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{A48C79EB-E134-45F0-8978-1BD165A6C836}" name="Presidente Vigente" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{97C07E3F-19EE-40A4-AF4E-3ECBA9A931D4}" name="Secretário de Saúde Vigente" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{16A0E6BB-C8B1-4C6B-A306-E5752C72C553}" name="Historico" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E63431CF-E3C7-431A-8F64-A81817FEA459}" name="Diferença" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>Tabela1[[#This Row],[Historico]]-Tabela1[[#Headers],[Historico]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3D0B59A6-27A9-4312-8ABD-B38312F5693B}" name="Difereça">
+    <tableColumn id="5" xr3:uid="{3D0B59A6-27A9-4312-8ABD-B38312F5693B}" name="Difereça" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>Tabela1[[#This Row],[Historico]]-(E1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FFFCD9EC-42E8-4225-8DA5-BCF33CA3514A}" name="Sexo mais atingido"/>
-    <tableColumn id="9" xr3:uid="{24FF8070-8F2D-4814-95C6-1657EC985F7A}" name="Idade Mais atingida"/>
-    <tableColumn id="7" xr3:uid="{943F4CDD-9F9E-4AAE-919B-4FC6779A2DD5}" name="Estado mais Atingido"/>
-    <tableColumn id="8" xr3:uid="{40B45080-CCA7-4B55-B490-C3BEF19C2ED5}" name="Etnia mais atingida"/>
+    <tableColumn id="10" xr3:uid="{FFFCD9EC-42E8-4225-8DA5-BCF33CA3514A}" name="Sexo mais atingido" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{24FF8070-8F2D-4814-95C6-1657EC985F7A}" name="Idade Mais atingida" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{943F4CDD-9F9E-4AAE-919B-4FC6779A2DD5}" name="Estado mais Atingido" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{40B45080-CCA7-4B55-B490-C3BEF19C2ED5}" name="Etnia mais atingida" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3471,1099 +3708,1134 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:K31"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1996</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>46</v>
       </c>
-      <c r="G2" t="e">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="e">
         <f>Tabela1[[#This Row],[Historico]]-(E1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>57</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1997</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>56</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>(((Tabela1[[#This Row],[Historico]]*1)/E2)-100%)</f>
         <v>0.21739130434782616</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E2)</f>
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1998</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>70</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E3)-100%</f>
         <v>0.25</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E3)</f>
         <v>14</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1999</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E4)-100%</f>
         <v>-0.4285714285714286</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E4)</f>
         <v>-30</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>22</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>2000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>34</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E5)-100%</f>
         <v>-0.15000000000000002</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E5)</f>
         <v>-6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>2001</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>84</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E6)-100%</f>
         <v>1.4705882352941178</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E6)</f>
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>19</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>2002</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>332</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E7)-100%</f>
         <v>2.9523809523809526</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E7)</f>
         <v>248</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>67</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>2003</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>138</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E8)-100%</f>
         <v>-0.5843373493975903</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E8)</f>
         <v>-194</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>29</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>2004</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>52</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E9)-100%</f>
         <v>-0.62318840579710144</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E9)</f>
         <v>-86</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>2005</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>96</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E10)-100%</f>
         <v>0.84615384615384626</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E10)</f>
         <v>44</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>2006</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>228</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E11)-100%</f>
         <v>1.375</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E11)</f>
         <v>132</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>2007</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>332</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E12)-100%</f>
         <v>0.45614035087719307</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E12)</f>
         <v>104</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>2008</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>1178</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E13)-100%</f>
         <v>2.5481927710843375</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E13)</f>
         <v>846</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>2009</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>750</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E14)-100%</f>
         <v>-0.36332767402376909</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E14)</f>
         <v>-428</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>2010</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>25.8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>774</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E15)-100%</f>
         <v>3.2000000000000028E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E15)</f>
         <v>24</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>2011</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>28.3</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>604</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E16)-100%</f>
         <v>-0.21963824289405687</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E16)</f>
         <v>-170</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>2012</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>30.1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>390</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E17)-100%</f>
         <v>-0.35430463576158944</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E17)</f>
         <v>-214</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>31</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>2013</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>32.4</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>1284</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E18)-100%</f>
         <v>2.2923076923076922</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E18)</f>
         <v>894</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>2014</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>916</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E19)-100%</f>
         <v>-0.28660436137071654</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E19)</f>
         <v>-368</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>2015</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>1860</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E20)-100%</f>
         <v>1.0305676855895198</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E20)</f>
         <v>944</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>85</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>2016</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>34.5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1706</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E21)-100%</f>
         <v>-8.2795698924731154E-2</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E21)</f>
         <v>-154</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>79</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>2017</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>36.200000000000003</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>420</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E22)-100%</f>
         <v>-0.75381008206330602</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E22)</f>
         <v>-1286</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>63</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>2018</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>38.1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>478</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E23)-100%</f>
         <v>0.13809523809523805</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E23)</f>
         <v>58</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>78</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>2019</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>40.5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1804</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E24)-100%</f>
         <v>2.7740585774058579</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E24)</f>
         <v>1326</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>79</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>2020</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>42.3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>1370</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E25)-100%</f>
         <v>-0.24057649667405767</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E25)</f>
         <v>-434</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>79</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>2021</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>45.1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>808</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E26)-100%</f>
         <v>-0.41021897810218977</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E26)</f>
         <v>-562</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>52</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>2022</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>47.8</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>2558</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f>((Tabela1[[#This Row],[Historico]]*1)/E27)-100%</f>
         <v>2.1658415841584158</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f>Tabela1[[#This Row],[Historico]]-(E27)</f>
         <v>1750</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>78</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>2023</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>50.2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2644</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>84</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>84</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F30" t="e">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="e">
         <f>Tabela1[[#This Row],[Historico]]-Tabela1[[#Headers],[Historico]]</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <f>Tabela1[[#This Row],[Historico]]-(E29)</f>
         <v>-2644</v>
       </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="str">
         <f>SUBTOTAL(109,Tabela1[Historico]) &amp; " Pessoas"</f>
         <v>21052 Pessoas</v>
       </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="e" cm="1" vm="1">
+      <c r="A32" s="1" t="e" cm="1" vm="1">
         <f t="array" aca="1" ref="A32" ca="1">SUBTOTAL(E2:E29,k)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
